--- a/fr/fr-adj.xlsx
+++ b/fr/fr-adj.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29080" windowHeight="13940" activeTab="1"/>
+    <workbookView windowWidth="29080" windowHeight="13940"/>
   </bookViews>
   <sheets>
     <sheet name="color" sheetId="1" r:id="rId1"/>
@@ -618,32 +618,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -770,7 +750,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,34 +762,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -894,18 +874,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1442,13 +1416,13 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:4">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1463,84 +1437,84 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="17.55" spans="1:4">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1553,13 +1527,13 @@
   <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:8">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1586,204 +1560,204 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" ht="17.55" spans="1:8">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/fr/fr-adj.xlsx
+++ b/fr/fr-adj.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29080" windowHeight="13940"/>
+    <workbookView windowWidth="30240" windowHeight="13960" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="color" sheetId="1" r:id="rId1"/>
-    <sheet name="pair" sheetId="2" r:id="rId2"/>
+    <sheet name="person" sheetId="4" r:id="rId2"/>
+    <sheet name="pair" sheetId="2" r:id="rId3"/>
+    <sheet name="adv" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,237 +30,300 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
+  <si>
+    <t>French</t>
+  </si>
   <si>
     <t>English</t>
   </si>
   <si>
-    <t>French</t>
+    <t>noir</t>
   </si>
   <si>
     <t>black</t>
   </si>
   <si>
-    <t>noir</t>
+    <t>blanc</t>
   </si>
   <si>
     <t>white</t>
   </si>
   <si>
-    <t>blanc</t>
+    <t>gris</t>
   </si>
   <si>
     <t>gray</t>
   </si>
   <si>
-    <t>gris</t>
+    <t>brun</t>
   </si>
   <si>
     <t>brown</t>
   </si>
   <si>
-    <t>brun</t>
+    <t>bleu</t>
   </si>
   <si>
     <t>blue</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>vert</t>
   </si>
   <si>
     <t>green</t>
   </si>
   <si>
-    <t>vert</t>
+    <t>rouge</t>
   </si>
   <si>
     <t>red</t>
   </si>
   <si>
-    <t>rouge</t>
+    <t>rose</t>
   </si>
   <si>
     <t>pink</t>
   </si>
   <si>
-    <t>rose</t>
+    <t>jaune</t>
   </si>
   <si>
     <t>yellow</t>
   </si>
   <si>
-    <t>jaune</t>
-  </si>
-  <si>
     <t>orange</t>
   </si>
   <si>
+    <t>violet</t>
+  </si>
+  <si>
     <t>purple</t>
   </si>
   <si>
-    <t>violet</t>
+    <t>beau</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>laid</t>
+  </si>
+  <si>
+    <t>ugly</t>
+  </si>
+  <si>
+    <t>grand</t>
+  </si>
+  <si>
+    <t>tall</t>
+  </si>
+  <si>
+    <t>court</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>ancien</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>jeune</t>
+  </si>
+  <si>
+    <t>young</t>
+  </si>
+  <si>
+    <t>intelligent</t>
+  </si>
+  <si>
+    <t>stupide</t>
+  </si>
+  <si>
+    <t>bouclé</t>
+  </si>
+  <si>
+    <t>curly</t>
+  </si>
+  <si>
+    <t>droit</t>
+  </si>
+  <si>
+    <t>straight</t>
+  </si>
+  <si>
+    <t>fort</t>
+  </si>
+  <si>
+    <t>faible</t>
   </si>
   <si>
     <t>big</t>
   </si>
   <si>
-    <t>grand</t>
+    <t>petit</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>petit</t>
+    <t>plein</t>
   </si>
   <si>
     <t>full</t>
   </si>
   <si>
-    <t>plein</t>
+    <t>vide</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>vide</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>court</t>
+    <t>bon</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>mauvais</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>épais</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>svelte</t>
+  </si>
+  <si>
+    <t>slim</t>
+  </si>
+  <si>
+    <t>propre</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>lourd</t>
+  </si>
+  <si>
+    <t>heavy</t>
+  </si>
+  <si>
+    <t>léger</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>wide</t>
+  </si>
+  <si>
+    <t>étroit</t>
+  </si>
+  <si>
+    <t>narrow</t>
+  </si>
+  <si>
+    <t>sombre</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>sucre</t>
+  </si>
+  <si>
+    <t>sweet</t>
+  </si>
+  <si>
+    <t>acide</t>
+  </si>
+  <si>
+    <t>sour</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>dry</t>
+  </si>
+  <si>
+    <t>humide</t>
+  </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>haut</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>bas</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>froid</t>
   </si>
   <si>
     <t>cold</t>
   </si>
   <si>
-    <t>froid</t>
+    <t>chaud</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
-    <t>chaud</t>
-  </si>
-  <si>
-    <t>tall</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>bon</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>mauvais</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>ancien</t>
-  </si>
-  <si>
-    <t>young</t>
-  </si>
-  <si>
-    <t>jeune</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>propre</t>
-  </si>
-  <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>thick</t>
-  </si>
-  <si>
-    <t>épais</t>
-  </si>
-  <si>
-    <t>slim</t>
-  </si>
-  <si>
-    <t>svelte</t>
-  </si>
-  <si>
-    <t>wide</t>
-  </si>
-  <si>
-    <t>large</t>
-  </si>
-  <si>
-    <t>narrow</t>
-  </si>
-  <si>
-    <t>étroit</t>
-  </si>
-  <si>
-    <t>heavy</t>
-  </si>
-  <si>
-    <t>lourd</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>léger</t>
-  </si>
-  <si>
-    <t>sweet</t>
-  </si>
-  <si>
-    <t>sucre</t>
-  </si>
-  <si>
-    <t>sour</t>
-  </si>
-  <si>
-    <t>acide</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>sombre</t>
-  </si>
-  <si>
-    <t>curly</t>
-  </si>
-  <si>
-    <t>bouclé</t>
-  </si>
-  <si>
-    <t>straight</t>
-  </si>
-  <si>
-    <t>droit</t>
-  </si>
-  <si>
-    <t>dry</t>
-  </si>
-  <si>
-    <t>sec</t>
-  </si>
-  <si>
-    <t>wet</t>
-  </si>
-  <si>
-    <t>humide</t>
+    <t>neuf</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>vieux</t>
+  </si>
+  <si>
+    <t>toujours</t>
+  </si>
+  <si>
+    <t>autour</t>
+  </si>
+  <si>
+    <t>souvent</t>
+  </si>
+  <si>
+    <t>parfois</t>
+  </si>
+  <si>
+    <t>rarement</t>
+  </si>
+  <si>
+    <t>jamais</t>
   </si>
 </sst>
 </file>
@@ -271,10 +336,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -744,141 +816,147 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1416,105 +1494,105 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1525,239 +1603,399 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="10.7692307692308" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="A1:H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9.23076923076923" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/fr/fr-adj.xlsx
+++ b/fr/fr-adj.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13960" activeTab="2"/>
+    <workbookView windowWidth="29040" windowHeight="13940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="color" sheetId="1" r:id="rId1"/>
@@ -946,7 +946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -957,6 +957,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1715,8 +1718,8 @@
   <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1946,8 +1949,8 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1969,33 +1972,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/fr/fr-adj.xlsx
+++ b/fr/fr-adj.xlsx
@@ -9,8 +9,10 @@
   <sheets>
     <sheet name="color" sheetId="1" r:id="rId1"/>
     <sheet name="person" sheetId="4" r:id="rId2"/>
-    <sheet name="pair" sheetId="2" r:id="rId3"/>
-    <sheet name="adv" sheetId="3" r:id="rId4"/>
+    <sheet name="nation" sheetId="5" r:id="rId3"/>
+    <sheet name="pair" sheetId="2" r:id="rId4"/>
+    <sheet name="abstract" sheetId="6" r:id="rId5"/>
+    <sheet name="adv" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="120">
   <si>
     <t>French</t>
   </si>
@@ -161,6 +163,60 @@
     <t>faible</t>
   </si>
   <si>
+    <t>allemand</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>cambodgien</t>
+  </si>
+  <si>
+    <t>Cambodian</t>
+  </si>
+  <si>
+    <t>autrichien</t>
+  </si>
+  <si>
+    <t>Austrian</t>
+  </si>
+  <si>
+    <t>coréen</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>néelandais</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>grec</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>danois</t>
+  </si>
+  <si>
+    <t>Danish</t>
+  </si>
+  <si>
+    <t>suédois</t>
+  </si>
+  <si>
+    <t>Swedish</t>
+  </si>
+  <si>
+    <t>turc</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
     <t>big</t>
   </si>
   <si>
@@ -185,6 +241,117 @@
     <t>long</t>
   </si>
   <si>
+    <t>propre</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>épais</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>svelte</t>
+  </si>
+  <si>
+    <t>slim</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>wide</t>
+  </si>
+  <si>
+    <t>étroit</t>
+  </si>
+  <si>
+    <t>narrow</t>
+  </si>
+  <si>
+    <t>lourd</t>
+  </si>
+  <si>
+    <t>heavy</t>
+  </si>
+  <si>
+    <t>léger</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>sucre</t>
+  </si>
+  <si>
+    <t>sweet</t>
+  </si>
+  <si>
+    <t>acide</t>
+  </si>
+  <si>
+    <t>sour</t>
+  </si>
+  <si>
+    <t>sombre</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>haut</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>bas</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>dry</t>
+  </si>
+  <si>
+    <t>humide</t>
+  </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>neuf</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>vieux</t>
+  </si>
+  <si>
+    <t>froid</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>chaud</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
     <t>bon</t>
   </si>
   <si>
@@ -197,115 +364,16 @@
     <t>bad</t>
   </si>
   <si>
-    <t>épais</t>
-  </si>
-  <si>
-    <t>thick</t>
-  </si>
-  <si>
-    <t>svelte</t>
-  </si>
-  <si>
-    <t>slim</t>
-  </si>
-  <si>
-    <t>propre</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>lourd</t>
-  </si>
-  <si>
-    <t>heavy</t>
-  </si>
-  <si>
-    <t>léger</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>large</t>
-  </si>
-  <si>
-    <t>wide</t>
-  </si>
-  <si>
-    <t>étroit</t>
-  </si>
-  <si>
-    <t>narrow</t>
-  </si>
-  <si>
-    <t>sombre</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>sucre</t>
-  </si>
-  <si>
-    <t>sweet</t>
-  </si>
-  <si>
-    <t>acide</t>
-  </si>
-  <si>
-    <t>sour</t>
-  </si>
-  <si>
-    <t>sec</t>
-  </si>
-  <si>
-    <t>dry</t>
-  </si>
-  <si>
-    <t>humide</t>
-  </si>
-  <si>
-    <t>wet</t>
-  </si>
-  <si>
-    <t>haut</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>bas</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>froid</t>
-  </si>
-  <si>
-    <t>cold</t>
-  </si>
-  <si>
-    <t>chaud</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>neuf</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>vieux</t>
+    <t>identique</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>différent</t>
+  </si>
+  <si>
+    <t>different</t>
   </si>
   <si>
     <t>toujours</t>
@@ -1608,8 +1676,8 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1716,15 +1784,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="12.6153846153846" customWidth="1"/>
+    <col min="2" max="2" width="11.6923076923077" customWidth="1"/>
+    <col min="3" max="3" width="12.6153846153846" customWidth="1"/>
+    <col min="4" max="4" width="12.2307692307692" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1737,206 +1811,84 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="2" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="5:8">
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1947,9 +1899,287 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+    <sheetView zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1974,45 +2204,45 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/fr/fr-adj.xlsx
+++ b/fr/fr-adj.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="13940" activeTab="3"/>
+    <workbookView windowWidth="29040" windowHeight="13940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="color" sheetId="1" r:id="rId1"/>
     <sheet name="person" sheetId="4" r:id="rId2"/>
     <sheet name="nation" sheetId="5" r:id="rId3"/>
     <sheet name="pair" sheetId="2" r:id="rId4"/>
-    <sheet name="abstract" sheetId="6" r:id="rId5"/>
+    <sheet name="mood" sheetId="7" r:id="rId5"/>
     <sheet name="adv" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="130">
   <si>
     <t>French</t>
   </si>
@@ -163,6 +163,12 @@
     <t>faible</t>
   </si>
   <si>
+    <t>riche</t>
+  </si>
+  <si>
+    <t>pauvre</t>
+  </si>
+  <si>
     <t>allemand</t>
   </si>
   <si>
@@ -352,6 +358,24 @@
     <t>hot</t>
   </si>
   <si>
+    <t>identique</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>différent</t>
+  </si>
+  <si>
+    <t>different</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>triste</t>
+  </si>
+  <si>
     <t>bon</t>
   </si>
   <si>
@@ -364,16 +388,22 @@
     <t>bad</t>
   </si>
   <si>
-    <t>identique</t>
-  </si>
-  <si>
-    <t>same</t>
-  </si>
-  <si>
-    <t>différent</t>
-  </si>
-  <si>
-    <t>different</t>
+    <t>mal</t>
+  </si>
+  <si>
+    <t>meilleur</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>pire</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>pis</t>
   </si>
   <si>
     <t>toujours</t>
@@ -1674,13 +1704,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="10.7692307692308" customWidth="1"/>
   </cols>
@@ -1774,6 +1804,22 @@
         <v>42</v>
       </c>
       <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1813,82 +1859,82 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>56</v>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>58</v>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>60</v>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1901,8 +1947,8 @@
   <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:H7"/>
+    <sheetView zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1938,33 +1984,33 @@
         <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
@@ -1973,134 +2019,146 @@
         <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="5:8">
@@ -2118,13 +2176,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
@@ -2141,34 +2199,80 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="A3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2204,17 +2308,17 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2222,7 +2326,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2230,7 +2334,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2238,7 +2342,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>

--- a/fr/fr-adj.xlsx
+++ b/fr/fr-adj.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="13940" activeTab="1"/>
+    <workbookView windowWidth="29080" windowHeight="13940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="color" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="130">
   <si>
     <t>French</t>
   </si>
@@ -337,7 +337,7 @@
     <t>wet</t>
   </si>
   <si>
-    <t>neuf</t>
+    <t>nouveau</t>
   </si>
   <si>
     <t>new</t>
@@ -1044,7 +1044,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1055,9 +1055,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1595,8 +1592,8 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+    <sheetView zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1706,8 +1703,8 @@
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1806,20 +1803,20 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1833,7 +1830,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C1" sqref="C1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1948,7 +1945,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G1" sqref="G1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -2178,8 +2175,8 @@
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2199,14 +2196,15 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
@@ -2223,50 +2221,50 @@
       </c>
     </row>
     <row r="4" spans="3:4">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
